--- a/spreadsheet/Hollard Branch List 20170719 1000.xlsx
+++ b/spreadsheet/Hollard Branch List 20170719 1000.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9435" tabRatio="599" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9435" tabRatio="599" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Retail Branch Boxer" sheetId="2" r:id="rId1"/>
@@ -1806,7 +1806,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1816,9 +1816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2143,14 +2141,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R133"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H126" sqref="H126"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
     <col min="15" max="15" width="2.140625" customWidth="1"/>
     <col min="16" max="18" width="9.140625" hidden="1" customWidth="1"/>
@@ -5461,15 +5457,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="99.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
